--- a/Code/Results/Cases/Case_5_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_246/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.54479428227873</v>
+        <v>15.8291344720034</v>
       </c>
       <c r="C2">
-        <v>13.67902403147347</v>
+        <v>11.81307979361698</v>
       </c>
       <c r="D2">
-        <v>4.546085688822186</v>
+        <v>5.239497140747618</v>
       </c>
       <c r="E2">
-        <v>7.640895980514751</v>
+        <v>12.73574010039477</v>
       </c>
       <c r="F2">
-        <v>19.36368049268579</v>
+        <v>25.99059951873788</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.154641494799895</v>
+        <v>9.876869094851983</v>
       </c>
       <c r="M2">
-        <v>12.37809559858117</v>
+        <v>14.88139831220169</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.42400535406948</v>
+        <v>23.25365463924795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0957873940869</v>
+        <v>15.28223480662598</v>
       </c>
       <c r="C3">
-        <v>13.17851820392121</v>
+        <v>11.61793548042829</v>
       </c>
       <c r="D3">
-        <v>4.44536751788616</v>
+        <v>5.208347467135989</v>
       </c>
       <c r="E3">
-        <v>7.784170932689258</v>
+        <v>12.78793604549683</v>
       </c>
       <c r="F3">
-        <v>18.94628132409284</v>
+        <v>26.04128224526769</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.073316129854655</v>
+        <v>9.884781208495161</v>
       </c>
       <c r="M3">
-        <v>11.76119990441983</v>
+        <v>14.76221821450033</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.3512501539593</v>
+        <v>23.34896619047704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.15378992793547</v>
+        <v>14.93775673891448</v>
       </c>
       <c r="C4">
-        <v>12.86210150003732</v>
+        <v>11.49608816262041</v>
       </c>
       <c r="D4">
-        <v>4.382431402553731</v>
+        <v>5.189065526473325</v>
       </c>
       <c r="E4">
-        <v>7.874817370804226</v>
+        <v>12.82165585133474</v>
       </c>
       <c r="F4">
-        <v>18.7107914362841</v>
+        <v>26.08123352351211</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.025763071642838</v>
+        <v>9.890994933423983</v>
       </c>
       <c r="M4">
-        <v>11.36948437255341</v>
+        <v>14.69048682200406</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.3265704874637</v>
+        <v>23.41422011713684</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.75668125544379</v>
+        <v>14.79540284180102</v>
       </c>
       <c r="C5">
-        <v>12.7309986639213</v>
+        <v>11.4459684698061</v>
       </c>
       <c r="D5">
-        <v>4.356530214665998</v>
+        <v>5.181172078059258</v>
       </c>
       <c r="E5">
-        <v>7.912442981875738</v>
+        <v>12.83581845923576</v>
       </c>
       <c r="F5">
-        <v>18.62004252637314</v>
+        <v>26.09972578195558</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.006989296509861</v>
+        <v>9.89386838780117</v>
       </c>
       <c r="M5">
-        <v>11.2067776894317</v>
+        <v>14.66164327331016</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.32133321952985</v>
+        <v>23.44249747632663</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.68993972324678</v>
+        <v>14.77165212672973</v>
       </c>
       <c r="C6">
-        <v>12.70910273685106</v>
+        <v>11.43761930416882</v>
       </c>
       <c r="D6">
-        <v>4.352214630901879</v>
+        <v>5.179859304918836</v>
       </c>
       <c r="E6">
-        <v>7.918732539476691</v>
+        <v>12.83819564477836</v>
       </c>
       <c r="F6">
-        <v>18.60528784281167</v>
+        <v>26.10292970653478</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.003908581548748</v>
+        <v>9.894366148080307</v>
       </c>
       <c r="M6">
-        <v>11.17958009725641</v>
+        <v>14.65687792274414</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.32074844439712</v>
+        <v>23.4472945224988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.14848808959656</v>
+        <v>14.93584461976241</v>
       </c>
       <c r="C7">
-        <v>12.86034196675262</v>
+        <v>11.49541405830676</v>
       </c>
       <c r="D7">
-        <v>4.382083090522318</v>
+        <v>5.188959213685112</v>
       </c>
       <c r="E7">
-        <v>7.875322005647817</v>
+        <v>12.82184514486052</v>
       </c>
       <c r="F7">
-        <v>18.70954648475411</v>
+        <v>26.08147397399739</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.025507427597597</v>
+        <v>9.891032303371263</v>
       </c>
       <c r="M7">
-        <v>11.36730226823255</v>
+        <v>14.69009622725584</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.32648062102625</v>
+        <v>23.4145946589983</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05597960373478</v>
+        <v>15.64248268655192</v>
       </c>
       <c r="C8">
-        <v>13.50841142352592</v>
+        <v>11.74624091424196</v>
       </c>
       <c r="D8">
-        <v>4.511597482239779</v>
+        <v>5.228791076715746</v>
       </c>
       <c r="E8">
-        <v>7.689750461505565</v>
+        <v>12.75339114463158</v>
       </c>
       <c r="F8">
-        <v>19.215443911616</v>
+        <v>26.00623676707072</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.126110057168586</v>
+        <v>9.879316095016046</v>
       </c>
       <c r="M8">
-        <v>12.1681703537148</v>
+        <v>14.84001958004105</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.39464835994495</v>
+        <v>23.28511662115811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38555989422469</v>
+        <v>16.9512377887164</v>
       </c>
       <c r="C9">
-        <v>14.70220905451985</v>
+        <v>12.22016117634855</v>
       </c>
       <c r="D9">
-        <v>4.756040135893803</v>
+        <v>5.305519951005589</v>
       </c>
       <c r="E9">
-        <v>7.346415648784525</v>
+        <v>12.6323564086523</v>
       </c>
       <c r="F9">
-        <v>20.37209684821904</v>
+        <v>25.92912536055191</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.34199827117646</v>
+        <v>9.86707704769532</v>
       </c>
       <c r="M9">
-        <v>13.77405730638927</v>
+        <v>15.14440715931313</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69563947117231</v>
+        <v>23.08493323893319</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.58695402744289</v>
+        <v>17.85633472017371</v>
       </c>
       <c r="C10">
-        <v>15.52696614373554</v>
+        <v>12.55503191110265</v>
       </c>
       <c r="D10">
-        <v>4.928801828013663</v>
+        <v>5.360859205103844</v>
       </c>
       <c r="E10">
-        <v>7.105749360104539</v>
+        <v>12.55140038061511</v>
       </c>
       <c r="F10">
-        <v>21.32065525404875</v>
+        <v>25.91580649815194</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.511553648094456</v>
+        <v>9.864600721555158</v>
       </c>
       <c r="M10">
-        <v>14.95899850384011</v>
+        <v>15.37289493485608</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.02968778457931</v>
+        <v>22.97101314357257</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53655243020905</v>
+        <v>18.25416794598627</v>
       </c>
       <c r="C11">
-        <v>15.88997302543889</v>
+        <v>12.70401346838582</v>
       </c>
       <c r="D11">
-        <v>5.005731568912232</v>
+        <v>5.385769527594006</v>
       </c>
       <c r="E11">
-        <v>6.99855674437225</v>
+        <v>12.51628437560353</v>
       </c>
       <c r="F11">
-        <v>21.77310470056742</v>
+        <v>25.91921473818765</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.590979379709218</v>
+        <v>9.86488134335559</v>
       </c>
       <c r="M11">
-        <v>15.47154966341609</v>
+        <v>15.47757343641451</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.20821242716901</v>
+        <v>22.92646853680101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88879740384003</v>
+        <v>18.40270121067948</v>
       </c>
       <c r="C12">
-        <v>16.02563066276044</v>
+        <v>12.75991017816015</v>
       </c>
       <c r="D12">
-        <v>5.034611250713249</v>
+        <v>5.395161043943726</v>
       </c>
       <c r="E12">
-        <v>6.958275553168169</v>
+        <v>12.50323164513862</v>
       </c>
       <c r="F12">
-        <v>21.94740004122709</v>
+        <v>25.92186908058317</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.621378849505122</v>
+        <v>9.865189154930462</v>
       </c>
       <c r="M12">
-        <v>15.66187746005417</v>
+        <v>15.51729146619905</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.27978185187764</v>
+        <v>22.91065351360698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81326019538288</v>
+        <v>18.37080782884123</v>
       </c>
       <c r="C13">
-        <v>15.99649537591432</v>
+        <v>12.74789549217636</v>
       </c>
       <c r="D13">
-        <v>5.02840289007611</v>
+        <v>5.393140314043099</v>
       </c>
       <c r="E13">
-        <v>6.966937333854095</v>
+        <v>12.50603190859919</v>
       </c>
       <c r="F13">
-        <v>21.90973138930259</v>
+        <v>25.92123674699777</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.614817534113193</v>
+        <v>9.86511391186591</v>
       </c>
       <c r="M13">
-        <v>15.62105361356186</v>
+        <v>15.50873442301023</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.26418952480511</v>
+        <v>22.91401262766512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56567846840414</v>
+        <v>18.26643093408272</v>
       </c>
       <c r="C14">
-        <v>15.90117010412819</v>
+        <v>12.70862273943036</v>
       </c>
       <c r="D14">
-        <v>5.008112635992076</v>
+        <v>5.386543024905286</v>
       </c>
       <c r="E14">
-        <v>6.995236677377586</v>
+        <v>12.51520561719948</v>
       </c>
       <c r="F14">
-        <v>21.78738497349103</v>
+        <v>25.91940577337897</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.593473933747362</v>
+        <v>9.864902632743055</v>
       </c>
       <c r="M14">
-        <v>15.48728321274834</v>
+        <v>15.48083964620831</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.21402021374804</v>
+        <v>22.92514628475459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.41307387426845</v>
+        <v>18.20221803122676</v>
       </c>
       <c r="C15">
-        <v>15.84254414681688</v>
+        <v>12.68449833613771</v>
       </c>
       <c r="D15">
-        <v>4.995651099313822</v>
+        <v>5.382496487677887</v>
       </c>
       <c r="E15">
-        <v>7.01261068622374</v>
+        <v>12.52085664303384</v>
       </c>
       <c r="F15">
-        <v>21.71282869253871</v>
+        <v>25.91846189004604</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.580442184169229</v>
+        <v>9.864799440521773</v>
       </c>
       <c r="M15">
-        <v>15.40485617776927</v>
+        <v>15.46376270157293</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.18381065608436</v>
+        <v>22.93210329582382</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52386155060847</v>
+        <v>17.8300451920178</v>
       </c>
       <c r="C16">
-        <v>15.50299282696095</v>
+        <v>12.54522491896428</v>
       </c>
       <c r="D16">
-        <v>4.923739708973722</v>
+        <v>5.359225644894199</v>
       </c>
       <c r="E16">
-        <v>7.112799112258934</v>
+        <v>12.55372963180693</v>
       </c>
       <c r="F16">
-        <v>21.29150377718708</v>
+        <v>25.91577449901384</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.50640851670098</v>
+        <v>9.864610630798035</v>
       </c>
       <c r="M16">
-        <v>14.9249727968911</v>
+        <v>15.36606644330323</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.01856812807242</v>
+        <v>22.97407125364099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.96515803654767</v>
+        <v>17.59807987380638</v>
       </c>
       <c r="C17">
-        <v>15.29152741533681</v>
+        <v>12.45889931323018</v>
       </c>
       <c r="D17">
-        <v>4.879189178480817</v>
+        <v>5.344879641864949</v>
       </c>
       <c r="E17">
-        <v>7.174834437199102</v>
+        <v>12.57433363314822</v>
       </c>
       <c r="F17">
-        <v>21.03836294312082</v>
+        <v>25.91655276404789</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.46157344809385</v>
+        <v>9.86485465676596</v>
       </c>
       <c r="M17">
-        <v>14.6238262459755</v>
+        <v>15.30630238751051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.92410935667668</v>
+        <v>23.00168605410821</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.63892180954263</v>
+        <v>17.46335734665409</v>
       </c>
       <c r="C18">
-        <v>15.16875413318483</v>
+        <v>12.40893362511766</v>
       </c>
       <c r="D18">
-        <v>4.853409279174421</v>
+        <v>5.336603582992225</v>
       </c>
       <c r="E18">
-        <v>7.210732015569568</v>
+        <v>12.58634565303552</v>
       </c>
       <c r="F18">
-        <v>20.89473741661204</v>
+        <v>25.91789143738125</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.436001831344668</v>
+        <v>9.865127510826955</v>
       </c>
       <c r="M18">
-        <v>14.44811885297193</v>
+        <v>15.2719988254647</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.87227172126953</v>
+        <v>23.01825405038189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52762173288613</v>
+        <v>17.41752281989676</v>
       </c>
       <c r="C19">
-        <v>15.12699057601442</v>
+        <v>12.39196342849759</v>
       </c>
       <c r="D19">
-        <v>4.844654352755522</v>
+        <v>5.333797332199671</v>
       </c>
       <c r="E19">
-        <v>7.222924055228582</v>
+        <v>12.59044042810787</v>
       </c>
       <c r="F19">
-        <v>20.84644895227123</v>
+        <v>25.91849762919358</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.427381109597591</v>
+        <v>9.865242673939063</v>
       </c>
       <c r="M19">
-        <v>14.38819742639377</v>
+        <v>15.26039728935978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.85514380619493</v>
+        <v>23.02398108422641</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02513778296368</v>
+        <v>17.62290865891207</v>
       </c>
       <c r="C20">
-        <v>15.31415709529903</v>
+        <v>12.4681215418308</v>
       </c>
       <c r="D20">
-        <v>4.883947865006857</v>
+        <v>5.34640937197404</v>
       </c>
       <c r="E20">
-        <v>7.16820839596926</v>
+        <v>12.57212363262107</v>
       </c>
       <c r="F20">
-        <v>21.06510624762086</v>
+        <v>25.91637767566769</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.466323883558159</v>
+        <v>9.864814972381138</v>
       </c>
       <c r="M20">
-        <v>14.65614181992322</v>
+        <v>15.31265721047108</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.93390558221494</v>
+        <v>22.99867550046244</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.63859776584089</v>
+        <v>18.29714730171769</v>
       </c>
       <c r="C21">
-        <v>15.92921880740039</v>
+        <v>12.72017248123893</v>
       </c>
       <c r="D21">
-        <v>5.014079309051072</v>
+        <v>5.388481962625083</v>
       </c>
       <c r="E21">
-        <v>6.986916205443075</v>
+        <v>12.5125044381196</v>
       </c>
       <c r="F21">
-        <v>21.82324104642747</v>
+        <v>25.91990655238268</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599734362450974</v>
+        <v>9.864959227358318</v>
       </c>
       <c r="M21">
-        <v>15.52667660117124</v>
+        <v>15.489031106119</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.22864742351621</v>
+        <v>22.92184743039018</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.65031346181277</v>
+        <v>18.72541353469959</v>
       </c>
       <c r="C22">
-        <v>16.32065874219314</v>
+        <v>12.8818592054338</v>
       </c>
       <c r="D22">
-        <v>5.097654403783822</v>
+        <v>5.415735415948861</v>
       </c>
       <c r="E22">
-        <v>6.870230737756336</v>
+        <v>12.47496701296436</v>
       </c>
       <c r="F22">
-        <v>22.33597592729372</v>
+        <v>25.93016169913691</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.688803964615833</v>
+        <v>9.866227848147266</v>
       </c>
       <c r="M22">
-        <v>16.07370519985304</v>
+        <v>15.60474677543784</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.44445365821072</v>
+        <v>22.87777660556677</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11421955378946</v>
+        <v>18.49800877429047</v>
       </c>
       <c r="C23">
-        <v>16.11271878094112</v>
+        <v>12.79585418151813</v>
       </c>
       <c r="D23">
-        <v>5.053187492783935</v>
+        <v>5.401213173570462</v>
       </c>
       <c r="E23">
-        <v>6.932349732752884</v>
+        <v>12.49487123309995</v>
       </c>
       <c r="F23">
-        <v>22.06075601403283</v>
+        <v>25.92396062076321</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.641096123013561</v>
+        <v>9.865443591728202</v>
       </c>
       <c r="M23">
-        <v>15.78373501686753</v>
+        <v>15.54295551341073</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.32710845679941</v>
+        <v>22.90073410582023</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99803661526763</v>
+        <v>17.61168780012356</v>
       </c>
       <c r="C24">
-        <v>15.30392994738187</v>
+        <v>12.46395321586088</v>
       </c>
       <c r="D24">
-        <v>4.881796982616557</v>
+        <v>5.345717869014935</v>
       </c>
       <c r="E24">
-        <v>7.17120330317762</v>
+        <v>12.57312225511589</v>
       </c>
       <c r="F24">
-        <v>21.05300965121297</v>
+        <v>25.91645405713726</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.464175573647417</v>
+        <v>9.864832500720432</v>
       </c>
       <c r="M24">
-        <v>14.64153997037415</v>
+        <v>15.30978401974065</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.9294690326951</v>
+        <v>23.00003441705061</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.5282429046594</v>
+        <v>16.60647758000777</v>
       </c>
       <c r="C25">
-        <v>14.38811466499186</v>
+        <v>12.09412687057498</v>
       </c>
       <c r="D25">
-        <v>4.691044091552459</v>
+        <v>5.284930391728268</v>
       </c>
       <c r="E25">
-        <v>7.437190851522971</v>
+        <v>12.66369440177342</v>
       </c>
       <c r="F25">
-        <v>20.04168475340871</v>
+        <v>25.94239966343726</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.281643076902873</v>
+        <v>9.86924138674353</v>
       </c>
       <c r="M25">
-        <v>13.31394554547002</v>
+        <v>15.06110139386856</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.59512204866919</v>
+        <v>23.1332940895555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_246/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.8291344720034</v>
+        <v>21.54479428227873</v>
       </c>
       <c r="C2">
-        <v>11.81307979361698</v>
+        <v>13.67902403147336</v>
       </c>
       <c r="D2">
-        <v>5.239497140747618</v>
+        <v>4.546085688822128</v>
       </c>
       <c r="E2">
-        <v>12.73574010039477</v>
+        <v>7.640895980514753</v>
       </c>
       <c r="F2">
-        <v>25.99059951873788</v>
+        <v>19.36368049268588</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.876869094851983</v>
+        <v>6.154641494799947</v>
       </c>
       <c r="M2">
-        <v>14.88139831220169</v>
+        <v>12.37809559858116</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.25365463924795</v>
+        <v>15.42400535406954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.28223480662598</v>
+        <v>20.09578739408691</v>
       </c>
       <c r="C3">
-        <v>11.61793548042829</v>
+        <v>13.17851820392112</v>
       </c>
       <c r="D3">
-        <v>5.208347467135989</v>
+        <v>4.445367517886091</v>
       </c>
       <c r="E3">
-        <v>12.78793604549683</v>
+        <v>7.784170932689392</v>
       </c>
       <c r="F3">
-        <v>26.04128224526769</v>
+        <v>18.94628132409273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.884781208495161</v>
+        <v>6.073316129854677</v>
       </c>
       <c r="M3">
-        <v>14.76221821450033</v>
+        <v>11.76119990441983</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.34896619047704</v>
+        <v>15.35125015395919</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.93775673891448</v>
+        <v>19.15378992793543</v>
       </c>
       <c r="C4">
-        <v>11.49608816262041</v>
+        <v>12.86210150003752</v>
       </c>
       <c r="D4">
-        <v>5.189065526473325</v>
+        <v>4.38243140255381</v>
       </c>
       <c r="E4">
-        <v>12.82165585133474</v>
+        <v>7.874817370804357</v>
       </c>
       <c r="F4">
-        <v>26.08123352351211</v>
+        <v>18.71079143628414</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.890994933423983</v>
+        <v>6.025763071642812</v>
       </c>
       <c r="M4">
-        <v>14.69048682200406</v>
+        <v>11.36948437255344</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.41422011713684</v>
+        <v>15.32657048746375</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.79540284180102</v>
+        <v>18.75668125544383</v>
       </c>
       <c r="C5">
-        <v>11.4459684698061</v>
+        <v>12.73099866392109</v>
       </c>
       <c r="D5">
-        <v>5.181172078059258</v>
+        <v>4.356530214666167</v>
       </c>
       <c r="E5">
-        <v>12.83581845923576</v>
+        <v>7.912442981875735</v>
       </c>
       <c r="F5">
-        <v>26.09972578195558</v>
+        <v>18.62004252637301</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.89386838780117</v>
+        <v>6.006989296509882</v>
       </c>
       <c r="M5">
-        <v>14.66164327331016</v>
+        <v>11.2067776894317</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.44249747632663</v>
+        <v>15.32133321952976</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77165212672973</v>
+        <v>18.68993972324682</v>
       </c>
       <c r="C6">
-        <v>11.43761930416882</v>
+        <v>12.70910273685104</v>
       </c>
       <c r="D6">
-        <v>5.179859304918836</v>
+        <v>4.352214630902126</v>
       </c>
       <c r="E6">
-        <v>12.83819564477836</v>
+        <v>7.918732539476624</v>
       </c>
       <c r="F6">
-        <v>26.10292970653478</v>
+        <v>18.60528784281166</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.894366148080307</v>
+        <v>6.003908581548694</v>
       </c>
       <c r="M6">
-        <v>14.65687792274414</v>
+        <v>11.17958009725639</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.4472945224988</v>
+        <v>15.32074844439716</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93584461976241</v>
+        <v>19.14848808959646</v>
       </c>
       <c r="C7">
-        <v>11.49541405830676</v>
+        <v>12.8603419667524</v>
       </c>
       <c r="D7">
-        <v>5.188959213685112</v>
+        <v>4.382083090522443</v>
       </c>
       <c r="E7">
-        <v>12.82184514486052</v>
+        <v>7.875322005647821</v>
       </c>
       <c r="F7">
-        <v>26.08147397399739</v>
+        <v>18.70954648475434</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.891032303371263</v>
+        <v>6.025507427597623</v>
       </c>
       <c r="M7">
-        <v>14.69009622725584</v>
+        <v>11.36730226823262</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.4145946589983</v>
+        <v>15.3264806210265</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.64248268655192</v>
+        <v>21.05597960373482</v>
       </c>
       <c r="C8">
-        <v>11.74624091424196</v>
+        <v>13.50841142352606</v>
       </c>
       <c r="D8">
-        <v>5.228791076715746</v>
+        <v>4.511597482239662</v>
       </c>
       <c r="E8">
-        <v>12.75339114463158</v>
+        <v>7.689750461505702</v>
       </c>
       <c r="F8">
-        <v>26.00623676707072</v>
+        <v>19.21544391161592</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.879316095016046</v>
+        <v>6.126110057168614</v>
       </c>
       <c r="M8">
-        <v>14.84001958004105</v>
+        <v>12.16817035371477</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.28511662115811</v>
+        <v>15.39464835994485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.9512377887164</v>
+        <v>24.38555989422469</v>
       </c>
       <c r="C9">
-        <v>12.22016117634855</v>
+        <v>14.70220905451998</v>
       </c>
       <c r="D9">
-        <v>5.305519951005589</v>
+        <v>4.756040135893801</v>
       </c>
       <c r="E9">
-        <v>12.6323564086523</v>
+        <v>7.346415648784528</v>
       </c>
       <c r="F9">
-        <v>25.92912536055191</v>
+        <v>20.37209684821903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.86707704769532</v>
+        <v>6.341998271176401</v>
       </c>
       <c r="M9">
-        <v>15.14440715931313</v>
+        <v>13.77405730638928</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.08493323893319</v>
+        <v>15.69563947117228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.85633472017371</v>
+        <v>26.58695402744289</v>
       </c>
       <c r="C10">
-        <v>12.55503191110265</v>
+        <v>15.52696614373565</v>
       </c>
       <c r="D10">
-        <v>5.360859205103844</v>
+        <v>4.928801828013737</v>
       </c>
       <c r="E10">
-        <v>12.55140038061511</v>
+        <v>7.105749360104542</v>
       </c>
       <c r="F10">
-        <v>25.91580649815194</v>
+        <v>21.32065525404884</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.864600721555158</v>
+        <v>6.511553648094442</v>
       </c>
       <c r="M10">
-        <v>15.37289493485608</v>
+        <v>14.95899850384014</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.97101314357257</v>
+        <v>16.02968778457941</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.25416794598627</v>
+        <v>27.53655243020904</v>
       </c>
       <c r="C11">
-        <v>12.70401346838582</v>
+        <v>15.88997302543901</v>
       </c>
       <c r="D11">
-        <v>5.385769527594006</v>
+        <v>5.005731568912208</v>
       </c>
       <c r="E11">
-        <v>12.51628437560353</v>
+        <v>6.998556744372385</v>
       </c>
       <c r="F11">
-        <v>25.91921473818765</v>
+        <v>21.77310470056747</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.86488134335559</v>
+        <v>6.59097937970925</v>
       </c>
       <c r="M11">
-        <v>15.47757343641451</v>
+        <v>15.47154966341608</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.92646853680101</v>
+        <v>16.20821242716906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.40270121067948</v>
+        <v>27.88879740384003</v>
       </c>
       <c r="C12">
-        <v>12.75991017816015</v>
+        <v>16.02563066276051</v>
       </c>
       <c r="D12">
-        <v>5.395161043943726</v>
+        <v>5.034611250713495</v>
       </c>
       <c r="E12">
-        <v>12.50323164513862</v>
+        <v>6.958275553168101</v>
       </c>
       <c r="F12">
-        <v>25.92186908058317</v>
+        <v>21.94740004122711</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.865189154930462</v>
+        <v>6.621378849505057</v>
       </c>
       <c r="M12">
-        <v>15.51729146619905</v>
+        <v>15.66187746005418</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.91065351360698</v>
+        <v>16.27978185187768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.37080782884123</v>
+        <v>27.81326019538285</v>
       </c>
       <c r="C13">
-        <v>12.74789549217636</v>
+        <v>15.99649537591431</v>
       </c>
       <c r="D13">
-        <v>5.393140314043099</v>
+        <v>5.028402890076229</v>
       </c>
       <c r="E13">
-        <v>12.50603190859919</v>
+        <v>6.966937333854164</v>
       </c>
       <c r="F13">
-        <v>25.92123674699777</v>
+        <v>21.90973138930261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.86511391186591</v>
+        <v>6.614817534113191</v>
       </c>
       <c r="M13">
-        <v>15.50873442301023</v>
+        <v>15.62105361356183</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.91401262766512</v>
+        <v>16.26418952480518</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.26643093408272</v>
+        <v>27.56567846840409</v>
       </c>
       <c r="C14">
-        <v>12.70862273943036</v>
+        <v>15.90117010412811</v>
       </c>
       <c r="D14">
-        <v>5.386543024905286</v>
+        <v>5.008112635992136</v>
       </c>
       <c r="E14">
-        <v>12.51520561719948</v>
+        <v>6.995236677377653</v>
       </c>
       <c r="F14">
-        <v>25.91940577337897</v>
+        <v>21.78738497349106</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.864902632743055</v>
+        <v>6.593473933747409</v>
       </c>
       <c r="M14">
-        <v>15.48083964620831</v>
+        <v>15.4872832127483</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.92514628475459</v>
+        <v>16.21402021374811</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.20221803122676</v>
+        <v>27.41307387426849</v>
       </c>
       <c r="C15">
-        <v>12.68449833613771</v>
+        <v>15.84254414681685</v>
       </c>
       <c r="D15">
-        <v>5.382496487677887</v>
+        <v>4.995651099313968</v>
       </c>
       <c r="E15">
-        <v>12.52085664303384</v>
+        <v>7.012610686223743</v>
       </c>
       <c r="F15">
-        <v>25.91846189004604</v>
+        <v>21.71282869253865</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.864799440521773</v>
+        <v>6.580442184169226</v>
       </c>
       <c r="M15">
-        <v>15.46376270157293</v>
+        <v>15.4048561777693</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.93210329582382</v>
+        <v>16.1838106560843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.8300451920178</v>
+        <v>26.52386155060842</v>
       </c>
       <c r="C16">
-        <v>12.54522491896428</v>
+        <v>15.50299282696093</v>
       </c>
       <c r="D16">
-        <v>5.359225644894199</v>
+        <v>4.923739708973915</v>
       </c>
       <c r="E16">
-        <v>12.55372963180693</v>
+        <v>7.112799112258866</v>
       </c>
       <c r="F16">
-        <v>25.91577449901384</v>
+        <v>21.29150377718709</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.864610630798035</v>
+        <v>6.50640851670101</v>
       </c>
       <c r="M16">
-        <v>15.36606644330323</v>
+        <v>14.92497279689106</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.97407125364099</v>
+        <v>16.01856812807253</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.59807987380638</v>
+        <v>25.96515803654772</v>
       </c>
       <c r="C17">
-        <v>12.45889931323018</v>
+        <v>15.29152741533661</v>
       </c>
       <c r="D17">
-        <v>5.344879641864949</v>
+        <v>4.879189178480963</v>
       </c>
       <c r="E17">
-        <v>12.57433363314822</v>
+        <v>7.174834437199105</v>
       </c>
       <c r="F17">
-        <v>25.91655276404789</v>
+        <v>21.03836294312078</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.86485465676596</v>
+        <v>6.461573448093873</v>
       </c>
       <c r="M17">
-        <v>15.30630238751051</v>
+        <v>14.62382624597552</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.00168605410821</v>
+        <v>15.92410935667668</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.46335734665409</v>
+        <v>25.63892180954265</v>
       </c>
       <c r="C18">
-        <v>12.40893362511766</v>
+        <v>15.16875413318467</v>
       </c>
       <c r="D18">
-        <v>5.336603582992225</v>
+        <v>4.853409279174328</v>
       </c>
       <c r="E18">
-        <v>12.58634565303552</v>
+        <v>7.210732015569437</v>
       </c>
       <c r="F18">
-        <v>25.91789143738125</v>
+        <v>20.89473741661202</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.865127510826955</v>
+        <v>6.436001831344611</v>
       </c>
       <c r="M18">
-        <v>15.2719988254647</v>
+        <v>14.44811885297196</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.01825405038189</v>
+        <v>15.87227172126946</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.41752281989676</v>
+        <v>25.5276217328862</v>
       </c>
       <c r="C19">
-        <v>12.39196342849759</v>
+        <v>15.1269905760142</v>
       </c>
       <c r="D19">
-        <v>5.333797332199671</v>
+        <v>4.844654352755565</v>
       </c>
       <c r="E19">
-        <v>12.59044042810787</v>
+        <v>7.222924055228718</v>
       </c>
       <c r="F19">
-        <v>25.91849762919358</v>
+        <v>20.84644895227128</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.865242673939063</v>
+        <v>6.427381109597616</v>
       </c>
       <c r="M19">
-        <v>15.26039728935978</v>
+        <v>14.38819742639376</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.02398108422641</v>
+        <v>15.85514380619493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.62290865891207</v>
+        <v>26.0251377829637</v>
       </c>
       <c r="C20">
-        <v>12.4681215418308</v>
+        <v>15.31415709529904</v>
       </c>
       <c r="D20">
-        <v>5.34640937197404</v>
+        <v>4.883947865007062</v>
       </c>
       <c r="E20">
-        <v>12.57212363262107</v>
+        <v>7.16820839596926</v>
       </c>
       <c r="F20">
-        <v>25.91637767566769</v>
+        <v>21.06510624762084</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.864814972381138</v>
+        <v>6.46632388355814</v>
       </c>
       <c r="M20">
-        <v>15.31265721047108</v>
+        <v>14.65614181992323</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.99867550046244</v>
+        <v>15.93390558221494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.29714730171769</v>
+        <v>27.63859776584087</v>
       </c>
       <c r="C21">
-        <v>12.72017248123893</v>
+        <v>15.92921880740051</v>
       </c>
       <c r="D21">
-        <v>5.388481962625083</v>
+        <v>5.01407930905117</v>
       </c>
       <c r="E21">
-        <v>12.5125044381196</v>
+        <v>6.986916205443074</v>
       </c>
       <c r="F21">
-        <v>25.91990655238268</v>
+        <v>21.82324104642758</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.864959227358318</v>
+        <v>6.599734362450957</v>
       </c>
       <c r="M21">
-        <v>15.489031106119</v>
+        <v>15.5266766011712</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.92184743039018</v>
+        <v>16.22864742351634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.72541353469959</v>
+        <v>28.65031346181275</v>
       </c>
       <c r="C22">
-        <v>12.8818592054338</v>
+        <v>16.32065874219308</v>
       </c>
       <c r="D22">
-        <v>5.415735415948861</v>
+        <v>5.097654403783938</v>
       </c>
       <c r="E22">
-        <v>12.47496701296436</v>
+        <v>6.87023073775627</v>
       </c>
       <c r="F22">
-        <v>25.93016169913691</v>
+        <v>22.33597592729373</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.866227848147266</v>
+        <v>6.688803964615829</v>
       </c>
       <c r="M22">
-        <v>15.60474677543784</v>
+        <v>16.07370519985304</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.87777660556677</v>
+        <v>16.44445365821078</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.49800877429047</v>
+        <v>28.11421955378943</v>
       </c>
       <c r="C23">
-        <v>12.79585418151813</v>
+        <v>16.11271878094113</v>
       </c>
       <c r="D23">
-        <v>5.401213173570462</v>
+        <v>5.053187492784006</v>
       </c>
       <c r="E23">
-        <v>12.49487123309995</v>
+        <v>6.932349732752946</v>
       </c>
       <c r="F23">
-        <v>25.92396062076321</v>
+        <v>22.06075601403283</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.865443591728202</v>
+        <v>6.641096123013561</v>
       </c>
       <c r="M23">
-        <v>15.54295551341073</v>
+        <v>15.78373501686749</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.90073410582023</v>
+        <v>16.32710845679943</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.61168780012356</v>
+        <v>25.99803661526759</v>
       </c>
       <c r="C24">
-        <v>12.46395321586088</v>
+        <v>15.30392994738194</v>
       </c>
       <c r="D24">
-        <v>5.345717869014935</v>
+        <v>4.881796982616464</v>
       </c>
       <c r="E24">
-        <v>12.57312225511589</v>
+        <v>7.171203303177617</v>
       </c>
       <c r="F24">
-        <v>25.91645405713726</v>
+        <v>21.05300965121297</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.864832500720432</v>
+        <v>6.464175573647407</v>
       </c>
       <c r="M24">
-        <v>15.30978401974065</v>
+        <v>14.64153997037414</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.00003441705061</v>
+        <v>15.92946903269509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.60647758000777</v>
+        <v>23.52824290465938</v>
       </c>
       <c r="C25">
-        <v>12.09412687057498</v>
+        <v>14.38811466499201</v>
       </c>
       <c r="D25">
-        <v>5.284930391728268</v>
+        <v>4.691044091552503</v>
       </c>
       <c r="E25">
-        <v>12.66369440177342</v>
+        <v>7.437190851523106</v>
       </c>
       <c r="F25">
-        <v>25.94239966343726</v>
+        <v>20.04168475340866</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.86924138674353</v>
+        <v>6.281643076902935</v>
       </c>
       <c r="M25">
-        <v>15.06110139386856</v>
+        <v>13.31394554546999</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.1332940895555</v>
+        <v>15.59512204866916</v>
       </c>
     </row>
   </sheetData>
